--- a/Raw_SRB_data/Selumetinib_only/Selumetinib_Assay_2.xlsx
+++ b/Raw_SRB_data/Selumetinib_only/Selumetinib_Assay_2.xlsx
@@ -353,7 +353,7 @@
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C13:C22"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,8 +717,8 @@
         <v>0.19160000000000002</v>
       </c>
       <c r="C14" s="2">
-        <f>(B14/B13*C13)</f>
-        <v>100.63025210084035</v>
+        <f>(B14/0.1904*C13)</f>
+        <v>100.63025210084034</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -726,8 +726,8 @@
         <v>0.18560000000000004</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:C22" si="1">(B15/B14*C14)</f>
-        <v>97.478991596638679</v>
+        <f t="shared" ref="C15:C22" si="1">(B15/0.1904*C14)</f>
+        <v>98.093354989054461</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -736,7 +736,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" si="1"/>
-        <v>83.088235294117652</v>
+        <v>81.504037601199656</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
@@ -745,7 +745,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="1"/>
-        <v>73.739495798319339</v>
+        <v>60.100666382397229</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
@@ -754,7 +754,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="1"/>
-        <v>60.924369747899149</v>
+        <v>36.615952207763016</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
@@ -763,7 +763,7 @@
       </c>
       <c r="C19" s="2">
         <f t="shared" si="1"/>
-        <v>55.987394957983192</v>
+        <v>20.500317780186649</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
@@ -772,7 +772,7 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" si="1"/>
-        <v>44.327731092436977</v>
+        <v>9.0873257386961814</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
@@ -781,7 +781,7 @@
       </c>
       <c r="C21" s="2">
         <f t="shared" si="1"/>
-        <v>48.319327731092436</v>
+        <v>4.3909347056725245</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
@@ -790,7 +790,7 @@
       </c>
       <c r="C22" s="2">
         <f t="shared" si="1"/>
-        <v>48.739495798319325</v>
+        <v>2.140119436378205</v>
       </c>
     </row>
   </sheetData>
